--- a/Doc/玩法/策划.xlsx
+++ b/Doc/玩法/策划.xlsx
@@ -4,12 +4,15 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20480" windowHeight="8800"/>
+    <workbookView windowWidth="16570" windowHeight="8800"/>
   </bookViews>
   <sheets>
     <sheet name="基本信息" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="卡牌" sheetId="2" r:id="rId2"/>
+    <sheet name="合成" sheetId="3" r:id="rId3"/>
+    <sheet name="随机事件" sheetId="4" r:id="rId4"/>
+    <sheet name="时间" sheetId="5" r:id="rId5"/>
+    <sheet name="Buff" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="89">
   <si>
     <t>游戏名称(Game_Name)</t>
   </si>
@@ -68,6 +71,237 @@
   </si>
   <si>
     <t>合成</t>
+  </si>
+  <si>
+    <t>抽牌功能</t>
+  </si>
+  <si>
+    <t>多语言</t>
+  </si>
+  <si>
+    <t>物品堆叠</t>
+  </si>
+  <si>
+    <t>核心玩法</t>
+  </si>
+  <si>
+    <t>玩家通过每日发放的随机数量的随机卡牌生存下来</t>
+  </si>
+  <si>
+    <t>玩法描述</t>
+  </si>
+  <si>
+    <t>现实世界2分钟等于游戏时间一天,玩家要做的就是
+在每日的随机事件利用手里的卡牌存活下来。</t>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>效果</t>
+  </si>
+  <si>
+    <t>可使用次数</t>
+  </si>
+  <si>
+    <t>额外表述</t>
+  </si>
+  <si>
+    <t>卡牌类型</t>
+  </si>
+  <si>
+    <t>物品</t>
+  </si>
+  <si>
+    <t>生物</t>
+  </si>
+  <si>
+    <t>NPC</t>
+  </si>
+  <si>
+    <t>道具</t>
+  </si>
+  <si>
+    <t>装备</t>
+  </si>
+  <si>
+    <t>武器</t>
+  </si>
+  <si>
+    <t>功能</t>
+  </si>
+  <si>
+    <t>资源</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Describe</t>
+  </si>
+  <si>
+    <t>Effect</t>
+  </si>
+  <si>
+    <t>frequency</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Biotic</t>
+  </si>
+  <si>
+    <t>Prop</t>
+  </si>
+  <si>
+    <t>Outfit</t>
+  </si>
+  <si>
+    <t>Arm</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>Resource</t>
+  </si>
+  <si>
+    <t>Woods</t>
+  </si>
+  <si>
+    <t>树林</t>
+  </si>
+  <si>
+    <t>大自然的奇迹</t>
+  </si>
+  <si>
+    <t>用于生产木头,每隔5日再生(可使用次数加1)&lt;上限可使用次数:6&gt;</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>Water_S</t>
+  </si>
+  <si>
+    <t>水源(小)</t>
+  </si>
+  <si>
+    <t>生命之源,这好像是个小水潭</t>
+  </si>
+  <si>
+    <t>用于延续生命直接使用有概率感染病毒或寄生虫</t>
+  </si>
+  <si>
+    <t>水源会随着使用次数越变越小
+使用次数超过6持有玩家则会
+获得洪水buff</t>
+  </si>
+  <si>
+    <t>Water_M</t>
+  </si>
+  <si>
+    <t>水源(中)</t>
+  </si>
+  <si>
+    <t>生命之源,这个池塘很适合游泳</t>
+  </si>
+  <si>
+    <t>Water_L</t>
+  </si>
+  <si>
+    <t>水源(大)</t>
+  </si>
+  <si>
+    <t>生命之源,湖水波光粼粼</t>
+  </si>
+  <si>
+    <t>Land_Y</t>
+  </si>
+  <si>
+    <t>黄土地</t>
+  </si>
+  <si>
+    <t>用于种植植物,嗯...不错</t>
+  </si>
+  <si>
+    <t>Land_R</t>
+  </si>
+  <si>
+    <t>红土地</t>
+  </si>
+  <si>
+    <t>用于种植植物,不错的土地</t>
+  </si>
+  <si>
+    <t>Land_B</t>
+  </si>
+  <si>
+    <t>黑土地</t>
+  </si>
+  <si>
+    <t>用于种植植物,这里的植物长的十分繁茂</t>
+  </si>
+  <si>
+    <t>Sandy_land</t>
+  </si>
+  <si>
+    <t>沙地</t>
+  </si>
+  <si>
+    <t>一片荒芜</t>
+  </si>
+  <si>
+    <t>合成物品_1</t>
+  </si>
+  <si>
+    <t>合成物品_2</t>
+  </si>
+  <si>
+    <t>合成物品_3</t>
+  </si>
+  <si>
+    <t>Item_1</t>
+  </si>
+  <si>
+    <t>Item_2</t>
+  </si>
+  <si>
+    <t>Item_3</t>
+  </si>
+  <si>
+    <t>&lt;=如果没有的参数可以填null</t>
+  </si>
+  <si>
+    <t>小雨</t>
+  </si>
+  <si>
+    <t>雨淅淅沥沥的下着</t>
+  </si>
+  <si>
+    <t>所有水源卡牌增加一次使用次数</t>
+  </si>
+  <si>
+    <t>大雨</t>
+  </si>
+  <si>
+    <t>暴雨</t>
   </si>
 </sst>
 </file>
@@ -80,10 +314,17 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -233,7 +474,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -242,6 +483,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -427,12 +686,53 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -450,21 +750,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -594,154 +879,214 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1054,79 +1399,141 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="E8:F8"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="20.1818181818182" customWidth="1"/>
     <col min="2" max="2" width="25.0909090909091" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="18" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="20"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="18" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="18" t="s">
         <v>12</v>
       </c>
     </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="13"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="22"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="23"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="20"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="25"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="25"/>
+      <c r="B21" s="25"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="5">
     <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1137,14 +1544,286 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.6636363636364" customWidth="1"/>
+    <col min="4" max="4" width="42.6454545454545" customWidth="1"/>
+    <col min="5" max="5" width="60.7181818181818" customWidth="1"/>
+    <col min="6" max="6" width="14.8090909090909" customWidth="1"/>
+    <col min="7" max="7" width="27.8181818181818" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="7"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="P2" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q2" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="10">
+        <v>3</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="14">
+        <v>3</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="14">
+        <v>4</v>
+      </c>
+      <c r="G5" s="16"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="14">
+        <v>5</v>
+      </c>
+      <c r="G6" s="16"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="16"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="16"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="16"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="G4:G6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1154,16 +1833,163 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="10.0909090909091" customWidth="1"/>
+    <col min="3" max="3" width="12.1818181818182" customWidth="1"/>
+    <col min="4" max="4" width="12.3636363636364" customWidth="1"/>
+    <col min="5" max="5" width="11.9090909090909" customWidth="1"/>
+    <col min="6" max="6" width="27.2727272727273" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="7.72727272727273" customWidth="1"/>
+    <col min="3" max="3" width="23.4545454545455" customWidth="1"/>
+    <col min="4" max="4" width="29.6363636363636" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Doc/玩法/策划.xlsx
+++ b/Doc/玩法/策划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16570" windowHeight="8800"/>
+    <workbookView windowWidth="24750" windowHeight="11190"/>
   </bookViews>
   <sheets>
     <sheet name="基本信息" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="随机事件" sheetId="4" r:id="rId4"/>
     <sheet name="时间" sheetId="5" r:id="rId5"/>
     <sheet name="Buff" sheetId="6" r:id="rId6"/>
+    <sheet name="牌桌" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="130">
   <si>
     <t>游戏名称(Game_Name)</t>
   </si>
@@ -40,59 +41,905 @@
     <t>资源战争(Resource_wars)</t>
   </si>
   <si>
+    <t>基本玩法规则</t>
+  </si>
+  <si>
+    <t>解释</t>
+  </si>
+  <si>
     <t>游戏类型(Game_Type)</t>
   </si>
   <si>
     <t>卡牌、生存、多人</t>
   </si>
   <si>
+    <t>生命值</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>为零表示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>玩家死亡</t>
+    </r>
+  </si>
+  <si>
+    <t>公共显示</t>
+  </si>
+  <si>
+    <t>饱食度</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>如果饱食度为零</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>体力值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>与</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>生命值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>每天都会降低基于最大值3/1的数值,时刻都会减少</t>
+    </r>
+  </si>
+  <si>
+    <t>仅自己可见</t>
+  </si>
+  <si>
+    <t>额外功能</t>
+  </si>
+  <si>
+    <t>口渴度</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>如果口渴度为零</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1天后</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>直接死亡,该值时刻都会减少</t>
+    </r>
+  </si>
+  <si>
     <t>基本功能</t>
   </si>
   <si>
+    <t>体力</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>用于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>牌桌间跳转</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>与</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>生物间的战斗</t>
+    </r>
+  </si>
+  <si>
     <t>游戏时间</t>
   </si>
   <si>
     <t>卡牌背包</t>
   </si>
   <si>
+    <t>重量</t>
+  </si>
+  <si>
+    <t>会影响牌桌间跳转的体力消耗</t>
+  </si>
+  <si>
     <t>卡牌</t>
   </si>
   <si>
     <t>局域网联机</t>
   </si>
   <si>
+    <t>不同牌桌的跳转</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>玩家或生物</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>消耗体力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>值进行不同</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>牌桌的跳转</t>
+    </r>
+  </si>
+  <si>
     <t>随机事件</t>
   </si>
   <si>
     <t>玩家间交互</t>
   </si>
   <si>
+    <t>资源转移</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>玩家可以携带</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>道具</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>将资源转换为对应的小型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>物品</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>移动到其它牌桌</t>
+    </r>
+  </si>
+  <si>
     <t>发牌功能</t>
   </si>
   <si>
     <t>合成</t>
   </si>
   <si>
+    <t>战斗</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>玩家无论是对玩家还是对生物进行战斗都会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>消耗体力值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,如果体力值消耗殆尽则</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>无法再进行操作</t>
+    </r>
+  </si>
+  <si>
     <t>抽牌功能</t>
   </si>
   <si>
     <t>多语言</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>卡牌堆叠在一起再将玩家的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>人物卡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>放上去</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>等待时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>即可</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>生成新的对应物品</t>
+    </r>
+  </si>
+  <si>
     <t>物品堆叠</t>
   </si>
   <si>
+    <t>地图</t>
+  </si>
+  <si>
+    <t>时间与随机事件</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>现实世界</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>两分钟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>等于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>游戏时间一天</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,每过一天</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不同的牌桌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>都有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>可能</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>发生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不同的随机事件</t>
+    </r>
+  </si>
+  <si>
+    <t>不同的牌桌环境</t>
+  </si>
+  <si>
+    <t>Mod接口开放</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>显示玩家走过的牌桌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>但不会在地图上显示玩家与资源</t>
+    </r>
+  </si>
+  <si>
+    <t>玩家背包</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>初始最多携带</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>三件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>物品,可以通过背包</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>道具牌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>进行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>临时扩容</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>背包物品过多</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>会导致</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>额外消耗体力(重量)</t>
+    </r>
+  </si>
+  <si>
     <t>核心玩法</t>
   </si>
   <si>
-    <t>玩家通过每日发放的随机数量的随机卡牌生存下来</t>
+    <t>玩家装备</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>玩家可以穿戴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>装备牌,以及主手装备</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>武器牌,装备与武器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>过重</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>会导致</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>额外消耗体力</t>
+    </r>
+  </si>
+  <si>
+    <t>玩家通过搜索不同牌桌的资源生存下来</t>
+  </si>
+  <si>
+    <t>物品掉落以及丢弃物品</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>玩家死亡后会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>掉落身上的所有物品</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,玩家丢弃物品可在牌桌上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>被其它玩家看见并拾取</t>
+    </r>
+  </si>
+  <si>
+    <t>牌桌环境</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不同的牌桌对应不同的环境,不同的环境</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>会影响玩家饱食度与口渴度、体力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的减少与增加</t>
+    </r>
   </si>
   <si>
     <t>玩法描述</t>
+  </si>
+  <si>
+    <t>堆叠交互</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>物品间可以堆叠但不可直接交互,需要玩家的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>人物卡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>介入</t>
+    </r>
   </si>
   <si>
     <t>现实世界2分钟等于游戏时间一天,玩家要做的就是
 在每日的随机事件利用手里的卡牌存活下来。</t>
+  </si>
+  <si>
+    <t>移动</t>
+  </si>
+  <si>
+    <t>玩家通过</t>
+  </si>
+  <si>
+    <t>交互范围</t>
   </si>
   <si>
     <t>序号</t>
@@ -314,7 +1161,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -325,6 +1172,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -473,8 +1327,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -496,6 +1356,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -879,55 +1745,52 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -942,74 +1805,77 @@
     <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1058,21 +1924,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1080,12 +1949,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1399,141 +2262,285 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="20.1818181818182" customWidth="1"/>
     <col min="2" max="2" width="25.0909090909091" customWidth="1"/>
+    <col min="4" max="4" width="21.2727272727273" customWidth="1"/>
+    <col min="5" max="5" width="87.4545454545455" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="17" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="20" t="s">
+      <c r="F1" s="16"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="20"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="18" t="s">
+      <c r="B2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="D2" s="13" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="18" t="s">
+      <c r="E2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="F2" s="16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="18" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="D3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="E3" s="14" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="18" t="s">
+      <c r="F3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="18" t="s">
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="18" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="18" t="s">
+      <c r="D4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="E4" s="14" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="F4" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="D5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="16"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="16"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="13"/>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="22"/>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="23"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="20"/>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="25"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25"/>
+        <v>34</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="4:5">
+      <c r="D13" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="23"/>
+      <c r="D14" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="24"/>
+      <c r="D15" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="4:5">
+      <c r="D16" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="19"/>
+      <c r="D17" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="D18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="D19" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B21"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1546,8 +2553,8 @@
   <sheetPr/>
   <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView zoomScale="81" zoomScaleNormal="81" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1561,263 +2568,263 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
-      <c r="J1" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="M1" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="N1" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="O1" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="P1" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q1" s="17" t="s">
-        <v>34</v>
+      <c r="J1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="5" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
-      <c r="J2" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="L2" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="M2" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="O2" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="P2" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q2" s="18" t="s">
-        <v>47</v>
+      <c r="J2" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>88</v>
       </c>
       <c r="R2" s="13" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="8" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="F3" s="10">
         <v>3</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="12" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="F4" s="14">
         <v>3</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="12" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="F5" s="14">
         <v>4</v>
       </c>
-      <c r="G5" s="16"/>
+      <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="12" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="F6" s="14">
         <v>5</v>
       </c>
-      <c r="G6" s="16"/>
+      <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="13" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
-      <c r="G7" s="16"/>
+      <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="13" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
-      <c r="G8" s="16"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="13" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
-      <c r="G9" s="16"/>
+      <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="13" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
-      <c r="G10" s="16"/>
+      <c r="G10" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1850,39 +2857,39 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="C1" t="s">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="D1" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="E1" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>122</v>
       </c>
       <c r="E2" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="F2" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1909,51 +2916,51 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="2:4">
       <c r="B3" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="D3" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>88</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1992,4 +2999,20 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>